--- a/src/main/resources/devices/wokwi/Referees.xlsx
+++ b/src/main/resources/devices/wokwi/Referees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\biy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\wokwi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92240AFC-E0EB-4DB1-AF74-2DD548F6A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186C64F-6078-45CE-B428-A4B7983B99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>pin</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>ignore A5</t>
+  </si>
+  <si>
+    <t>1000 200 200 6,7</t>
+  </si>
+  <si>
+    <t>1000 200 200 10,11</t>
+  </si>
+  <si>
+    <t>4000 200 200 2,3</t>
   </si>
 </sst>
 </file>
@@ -616,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -627,7 +636,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -690,7 +699,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -835,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="7"/>
@@ -1011,7 +1020,7 @@
         <v>26</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9">

--- a/src/main/resources/devices/wokwi/Referees.xlsx
+++ b/src/main/resources/devices/wokwi/Referees.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\wokwi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3186C64F-6078-45CE-B428-A4B7983B99BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B185D1-DBB0-4BA2-8471-E7F4F184EB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="47">
   <si>
     <t>pin</t>
   </si>
@@ -135,9 +135,6 @@
     <t>refbox/decision</t>
   </si>
   <si>
-    <t>1000 200 200</t>
-  </si>
-  <si>
     <t>TONE</t>
   </si>
   <si>
@@ -147,12 +144,6 @@
     <t>Down sound A1</t>
   </si>
   <si>
-    <t>C6,250,PAUSE,125,C6,250</t>
-  </si>
-  <si>
-    <t>C4,250,C5,250,PAUSE,250,C4,250,C5,250</t>
-  </si>
-  <si>
     <t>button</t>
   </si>
   <si>
@@ -171,13 +162,19 @@
     <t>ignore A5</t>
   </si>
   <si>
-    <t>1000 200 200 6,7</t>
-  </si>
-  <si>
-    <t>1000 200 200 10,11</t>
-  </si>
-  <si>
-    <t>4000 200 200 2,3</t>
+    <t>1800,200,100 - 6,7</t>
+  </si>
+  <si>
+    <t>C6,250,D6,250,PAUSE,250,C6,250,D6,250</t>
+  </si>
+  <si>
+    <t>1800,200,100 - 3,2</t>
+  </si>
+  <si>
+    <t>1250,250,250</t>
+  </si>
+  <si>
+    <t>1800,200,100 - 10,11</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -317,6 +314,12 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -635,9 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -661,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>8</v>
@@ -673,7 +674,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>1</v>
@@ -704,22 +705,22 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -755,22 +756,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
@@ -787,10 +788,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -844,7 +845,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="7"/>
@@ -852,22 +853,22 @@
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="7"/>
@@ -915,22 +916,22 @@
     </row>
     <row r="14" spans="1:9" s="12" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="7"/>
@@ -950,10 +951,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
@@ -969,9 +970,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
         <v>2</v>
       </c>
@@ -1016,22 +1015,22 @@
       <c r="D18" s="1">
         <v>3</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>47</v>
+      <c r="F18" s="26" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -1040,7 +1039,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1076,22 +1075,22 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="30">
@@ -1108,10 +1107,10 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1150,7 +1149,7 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1">
       <c r="A26" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B26" s="23">
         <v>14</v>
@@ -1171,7 +1170,7 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1">
       <c r="A27" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B27" s="23">
         <v>15</v>
@@ -1192,7 +1191,7 @@
     </row>
     <row r="28" spans="1:9" customFormat="1">
       <c r="A28" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B28" s="19">
         <v>16</v>
@@ -1207,7 +1206,7 @@
     </row>
     <row r="29" spans="1:9" customFormat="1">
       <c r="A29" s="18" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B29" s="19">
         <v>17</v>
@@ -1222,7 +1221,7 @@
     </row>
     <row r="30" spans="1:9" customFormat="1">
       <c r="A30" s="18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B30" s="19">
         <v>18</v>
@@ -1237,7 +1236,7 @@
     </row>
     <row r="31" spans="1:9" customFormat="1">
       <c r="A31" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="19">
         <v>19</v>
@@ -1251,6 +1250,9 @@
       <c r="I31" s="18"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:I25">
+    <sortCondition ref="C18:C25"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
